--- a/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
+++ b/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="236">
   <si>
     <t xml:space="preserve">mfd_sampletype</t>
   </si>
@@ -605,9 +605,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fjords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fjords?</t>
   </si>
   <si>
     <t xml:space="preserve">Sandy fjord seabed</t>
@@ -948,13 +945,13 @@
   </sheetPr>
   <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D127" activeCellId="0" sqref="D127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G171" activeCellId="0" sqref="G171:H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.15"/>
@@ -4112,7 +4109,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>8</v>
       </c>
@@ -4131,14 +4128,10 @@
       <c r="F122" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G122" s="6" t="n">
-        <v>6100</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>8</v>
       </c>
@@ -4157,14 +4150,10 @@
       <c r="F123" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G123" s="6" t="n">
-        <v>6200</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>8</v>
       </c>
@@ -4183,12 +4172,8 @@
       <c r="F124" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G124" s="6" t="n">
-        <v>6300</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>171</v>
-      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
@@ -4398,7 +4383,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>182</v>
       </c>
@@ -4417,12 +4402,8 @@
       <c r="F133" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G133" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
@@ -4658,7 +4639,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>182</v>
       </c>
@@ -4677,12 +4658,8 @@
       <c r="F143" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G143" s="6" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>195</v>
-      </c>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
@@ -4707,7 +4684,7 @@
         <v>1301</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,7 +4710,7 @@
         <v>1302</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,7 +4736,7 @@
         <v>1303</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,19 +4750,19 @@
         <v>3000</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>3110</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,19 +4776,19 @@
         <v>3000</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>3130</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,19 +4802,19 @@
         <v>3000</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>3140</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,19 +4828,19 @@
         <v>3000</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>3150</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4877,19 +4854,19 @@
         <v>3000</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>3160</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,19 +4880,19 @@
         <v>3000</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>3260</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,22 +4906,22 @@
         <v>3000</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>3270</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>182</v>
       </c>
@@ -4955,20 +4932,16 @@
         <v>3000</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="G154" s="6" t="n">
-        <v>3200</v>
-      </c>
-      <c r="H154" s="6" t="s">
-        <v>206</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
@@ -4981,19 +4954,19 @@
         <v>3000</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G155" s="6" t="n">
         <v>3210</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,19 +4980,19 @@
         <v>3000</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G156" s="6" t="n">
         <v>3201</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,13 +5012,13 @@
         <v>1100</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G157" s="6" t="n">
         <v>1110</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,19 +5032,19 @@
         <v>3000</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>3100</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G158" s="6" t="n">
         <v>3110</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,19 +5058,19 @@
         <v>3000</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>3100</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G159" s="6" t="n">
         <v>3111</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,19 +5084,19 @@
         <v>3000</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>3100</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G160" s="6" t="n">
         <v>3120</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5137,19 +5110,19 @@
         <v>3000</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E161" s="6" t="n">
         <v>3100</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G161" s="6" t="n">
         <v>3130</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,19 +5136,19 @@
         <v>3000</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E162" s="6" t="n">
         <v>3100</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G162" s="6" t="n">
         <v>3131</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,7 +5174,7 @@
         <v>1110</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,7 +5200,7 @@
         <v>1120</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5247,13 +5220,13 @@
         <v>1200</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G165" s="6" t="n">
         <v>1210</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,13 +5246,13 @@
         <v>1200</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G166" s="6" t="n">
         <v>1220</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,13 +5272,13 @@
         <v>1200</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G167" s="6" t="n">
         <v>1230</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,7 +5304,7 @@
         <v>1310</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5351,13 +5324,13 @@
         <v>1400</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G169" s="6" t="n">
         <v>1410</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,18 +5350,18 @@
         <v>1400</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G170" s="6" t="n">
         <v>1420</v>
       </c>
       <c r="H170" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="6" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>9</v>
@@ -5405,16 +5378,12 @@
       <c r="F171" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G171" s="6" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>194</v>
-      </c>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>174</v>
@@ -5423,13 +5392,13 @@
         <v>3000</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E172" s="6" t="n">
         <v>3100</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G172" s="6" t="n">
         <v>3110</v>
@@ -5440,7 +5409,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>174</v>
@@ -5449,13 +5418,13 @@
         <v>3000</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E173" s="6" t="n">
         <v>3100</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G173" s="6" t="n">
         <v>3120</v>
@@ -5466,7 +5435,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>168</v>
@@ -5481,18 +5450,18 @@
         <v>3100</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G174" s="6" t="n">
         <v>3110</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>168</v>
@@ -5507,18 +5476,18 @@
         <v>3100</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G175" s="6" t="n">
         <v>3120</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>168</v>
@@ -5533,18 +5502,18 @@
         <v>3200</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G176" s="6" t="n">
         <v>3210</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>9</v>
@@ -5559,18 +5528,18 @@
         <v>1100</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G177" s="6" t="n">
         <v>1110</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>168</v>
@@ -5585,18 +5554,18 @@
         <v>3200</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G178" s="6" t="n">
         <v>3211</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>168</v>
@@ -5611,14 +5580,10 @@
         <v>1100</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="G179" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="H179" s="6" t="s">
-        <v>236</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G24:G121">

--- a/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
+++ b/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
@@ -244,7 +244,7 @@
     <t xml:space="preserve">Sea caves</t>
   </si>
   <si>
-    <t xml:space="preserve">Forrests</t>
+    <t xml:space="preserve">Forests</t>
   </si>
   <si>
     <t xml:space="preserve">Temperate forests</t>
@@ -262,13 +262,13 @@
     <t xml:space="preserve">Beech forests Limestone</t>
   </si>
   <si>
-    <t xml:space="preserve">Oak-hornbeam mixed forrest</t>
+    <t xml:space="preserve">Oak-hornbeam mixed forest</t>
   </si>
   <si>
     <t xml:space="preserve">Oak-hornbeam forests Galio-Carpinetum</t>
   </si>
   <si>
-    <t xml:space="preserve">Oak forrest  Old acidophilous woods with Q. robur on sandy plains</t>
+    <t xml:space="preserve">Oak forest  Old acidophilous woods with Q. robur on sandy plains</t>
   </si>
   <si>
     <t xml:space="preserve">91D0</t>
@@ -283,10 +283,10 @@
     <t xml:space="preserve">Alluvial woodland</t>
   </si>
   <si>
-    <t xml:space="preserve">Forrest (non-habitattype)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coniferous forrest (nåleskov)</t>
+    <t xml:space="preserve">Forest (non-habitattype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coniferous forest (nåleskov)</t>
   </si>
   <si>
     <t xml:space="preserve">spruce (rødgran, normann)</t>
@@ -856,12 +856,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -939,27 +939,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G171" activeCellId="0" sqref="G171:H171"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="60.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,7 +2079,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>8</v>
       </c>
@@ -2106,7 +2105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>8</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>8</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>8</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>8</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>8</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>8</v>
       </c>
@@ -2262,7 +2261,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>8</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>8</v>
       </c>
@@ -2341,7 +2340,7 @@
       </c>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>8</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>8</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>8</v>
       </c>
@@ -2445,7 +2444,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>8</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>8</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>8</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>8</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>8</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>8</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>8</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>8</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>8</v>
       </c>
@@ -5587,13 +5586,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G24:G121">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
+++ b/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="237">
   <si>
     <t xml:space="preserve">mfd_sampletype</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t xml:space="preserve">Deciduous trees (løvtræer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedunculate oak (stilk-eg)</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture</t>
@@ -738,7 +741,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -774,6 +777,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -825,7 +834,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -851,6 +860,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -943,10 +956,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2704,30 +2717,30 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>9991</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="G68" s="0" t="n">
-        <v>6111</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,22 +2748,22 @@
         <v>8</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>6112</v>
+        <v>6111</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>107</v>
@@ -2761,22 +2774,22 @@
         <v>8</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>6121</v>
+        <v>6112</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>108</v>
@@ -2787,22 +2800,22 @@
         <v>8</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>6122</v>
+        <v>6121</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>109</v>
@@ -2813,22 +2826,22 @@
         <v>8</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>6123</v>
+        <v>6122</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>110</v>
@@ -2839,22 +2852,22 @@
         <v>8</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>6124</v>
+        <v>6123</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>111</v>
@@ -2865,22 +2878,22 @@
         <v>8</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>6131</v>
+        <v>6124</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>112</v>
@@ -2891,22 +2904,22 @@
         <v>8</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>6132</v>
+        <v>6131</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>113</v>
@@ -2917,22 +2930,22 @@
         <v>8</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>6141</v>
+        <v>6132</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>114</v>
@@ -2943,22 +2956,22 @@
         <v>8</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>6142</v>
+        <v>6141</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>115</v>
@@ -2969,22 +2982,22 @@
         <v>8</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>6143</v>
+        <v>6142</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>116</v>
@@ -2995,22 +3008,22 @@
         <v>8</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>6152</v>
+        <v>6143</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>117</v>
@@ -3021,22 +3034,22 @@
         <v>8</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>6153</v>
+        <v>6152</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>118</v>
@@ -3047,22 +3060,22 @@
         <v>8</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>6161</v>
+        <v>6153</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>119</v>
@@ -3073,22 +3086,22 @@
         <v>8</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>6162</v>
+        <v>6161</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>120</v>
@@ -3099,22 +3112,22 @@
         <v>8</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>6190</v>
+        <v>6162</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>121</v>
@@ -3125,25 +3138,25 @@
         <v>8</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F84" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>6190</v>
+      </c>
+      <c r="H84" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="G84" s="0" t="n">
-        <v>6211</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,22 +3164,22 @@
         <v>8</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>6212</v>
+        <v>6211</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>124</v>
@@ -3177,22 +3190,22 @@
         <v>8</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>6213</v>
+        <v>6212</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>125</v>
@@ -3203,22 +3216,22 @@
         <v>8</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>6214</v>
+        <v>6213</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>126</v>
@@ -3229,22 +3242,22 @@
         <v>8</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>6221</v>
+        <v>6214</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>127</v>
@@ -3255,22 +3268,22 @@
         <v>8</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>6222</v>
+        <v>6221</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>128</v>
@@ -3281,22 +3294,22 @@
         <v>8</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>6231</v>
+        <v>6222</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>129</v>
@@ -3307,22 +3320,22 @@
         <v>8</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>6232</v>
+        <v>6231</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>130</v>
@@ -3333,22 +3346,22 @@
         <v>8</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>6233</v>
+        <v>6232</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>131</v>
@@ -3359,25 +3372,25 @@
         <v>8</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="F93" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>6233</v>
+      </c>
+      <c r="H93" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="G93" s="0" t="n">
-        <v>6311</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,25 +3398,25 @@
         <v>8</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="F94" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>6311</v>
+      </c>
+      <c r="H94" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="G94" s="0" t="n">
-        <v>6411</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,22 +3424,22 @@
         <v>8</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>6400</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>6421</v>
+        <v>6411</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>136</v>
@@ -3437,22 +3450,22 @@
         <v>8</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>6400</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>6422</v>
+        <v>6421</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>137</v>
@@ -3463,22 +3476,22 @@
         <v>8</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>6400</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>6429</v>
+        <v>6422</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>138</v>
@@ -3489,25 +3502,25 @@
         <v>8</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="F98" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>6429</v>
+      </c>
+      <c r="H98" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="G98" s="0" t="n">
-        <v>6511</v>
-      </c>
-      <c r="H98" s="0" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,22 +3528,22 @@
         <v>8</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>6500</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>6512</v>
+        <v>6511</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>141</v>
@@ -3541,22 +3554,22 @@
         <v>8</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>6500</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>6514</v>
+        <v>6512</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>142</v>
@@ -3567,25 +3580,25 @@
         <v>8</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="F101" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>6514</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="G101" s="0" t="n">
-        <v>6611</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,22 +3606,22 @@
         <v>8</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>6600</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>6612</v>
+        <v>6611</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>145</v>
@@ -3619,22 +3632,22 @@
         <v>8</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>6600</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>6613</v>
+        <v>6612</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>146</v>
@@ -3645,22 +3658,22 @@
         <v>8</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>6600</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>6621</v>
+        <v>6613</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>147</v>
@@ -3671,22 +3684,22 @@
         <v>8</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>6600</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>6622</v>
+        <v>6621</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>148</v>
@@ -3697,25 +3710,25 @@
         <v>8</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="F106" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>6622</v>
+      </c>
+      <c r="H106" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="G106" s="0" t="n">
-        <v>6711</v>
-      </c>
-      <c r="H106" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,22 +3736,22 @@
         <v>8</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>6700</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>6710</v>
+        <v>6711</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>151</v>
@@ -3749,22 +3762,22 @@
         <v>8</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>6700</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>6712</v>
+        <v>6710</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>152</v>
@@ -3775,22 +3788,22 @@
         <v>8</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>6700</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>153</v>
@@ -3801,22 +3814,22 @@
         <v>8</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>6700</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>6714</v>
+        <v>6713</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>154</v>
@@ -3827,25 +3840,25 @@
         <v>8</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="F111" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>6714</v>
+      </c>
+      <c r="H111" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="G111" s="0" t="n">
-        <v>6816</v>
-      </c>
-      <c r="H111" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,22 +3866,22 @@
         <v>8</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>6817</v>
+        <v>6816</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>157</v>
@@ -3879,22 +3892,22 @@
         <v>8</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>6818</v>
+        <v>6817</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>158</v>
@@ -3905,22 +3918,22 @@
         <v>8</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>6822</v>
+        <v>6818</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>159</v>
@@ -3931,22 +3944,22 @@
         <v>8</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>6823</v>
+        <v>6822</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>160</v>
@@ -3957,22 +3970,22 @@
         <v>8</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>6841</v>
+        <v>6823</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>161</v>
@@ -3983,22 +3996,22 @@
         <v>8</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>6861</v>
+        <v>6841</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>162</v>
@@ -4009,22 +4022,22 @@
         <v>8</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>6871</v>
+        <v>6861</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>163</v>
@@ -4035,25 +4048,25 @@
         <v>8</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F119" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>6871</v>
+      </c>
+      <c r="H119" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="G119" s="0" t="n">
-        <v>6911</v>
-      </c>
-      <c r="H119" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,22 +4074,22 @@
         <v>8</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>6900</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>6912</v>
+        <v>6911</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>166</v>
@@ -4087,686 +4100,686 @@
         <v>8</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>6900</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>6913</v>
+        <v>6912</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="6" t="s">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>6913</v>
+      </c>
+      <c r="H122" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C122" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E122" s="6" t="n">
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E123" s="7" t="n">
         <v>6100</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F123" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C123" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E123" s="6" t="n">
+      <c r="C124" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E124" s="7" t="n">
         <v>6200</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C124" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E124" s="6" t="n">
+      <c r="F124" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E125" s="7" t="n">
         <v>6300</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C125" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E125" s="6" t="n">
+      <c r="F125" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E126" s="7" t="n">
         <v>6400</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="F126" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G126" s="7" t="n">
+        <v>6410</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E127" s="7" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G127" s="7" t="n">
+        <v>6420</v>
+      </c>
+      <c r="H127" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G125" s="6" t="n">
-        <v>6410</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C126" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E126" s="6" t="n">
-        <v>6400</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G126" s="6" t="n">
-        <v>6420</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C127" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E127" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F127" s="6" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G127" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="H127" s="6" t="s">
+      <c r="C128" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E128" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G128" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C128" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E128" s="6" t="n">
+      <c r="C129" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E129" s="7" t="n">
         <v>6100</v>
       </c>
-      <c r="F128" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G128" s="6" t="n">
+      <c r="F129" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G129" s="7" t="n">
         <v>6110</v>
       </c>
-      <c r="H128" s="6" t="s">
+      <c r="H129" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E130" s="7" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F130" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C129" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E129" s="6" t="n">
+      <c r="G130" s="7" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E131" s="7" t="n">
         <v>6100</v>
       </c>
-      <c r="F129" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G129" s="6" t="n">
-        <v>6120</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C130" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E130" s="6" t="n">
+      <c r="F131" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G131" s="7" t="n">
+        <v>6130</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E132" s="7" t="n">
         <v>6100</v>
       </c>
-      <c r="F130" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G130" s="6" t="n">
-        <v>6130</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C131" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E131" s="6" t="n">
-        <v>6100</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G131" s="6" t="n">
+      <c r="F132" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G132" s="7" t="n">
         <v>6190</v>
       </c>
-      <c r="H131" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C132" s="6" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E132" s="6" t="n">
+      <c r="H132" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" s="7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E133" s="7" t="n">
         <v>6200</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G132" s="6" t="n">
+      <c r="F133" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G133" s="7" t="n">
         <v>6200</v>
       </c>
-      <c r="H132" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6" t="s">
+      <c r="H133" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="6" t="n">
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D134" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E134" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E133" s="6" t="n">
+      <c r="B135" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E135" s="7" t="n">
         <v>1100</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="F135" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G135" s="7" t="n">
+        <v>1101</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="6" t="n">
+      <c r="E136" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G136" s="7" t="n">
+        <v>1102</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D137" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E137" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G137" s="7" t="n">
+        <v>1103</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E134" s="6" t="n">
+      <c r="B138" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E138" s="7" t="n">
         <v>1100</v>
       </c>
-      <c r="F134" s="6" t="s">
+      <c r="F138" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G138" s="7" t="n">
+        <v>1110</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G134" s="6" t="n">
-        <v>1101</v>
-      </c>
-      <c r="H134" s="6" t="s">
+      <c r="E139" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" s="6" t="n">
+      <c r="G139" s="7" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D140" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E140" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G140" s="7" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E135" s="6" t="n">
+      <c r="B141" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E141" s="7" t="n">
         <v>1100</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="F141" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G141" s="7" t="n">
+        <v>1160</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G135" s="6" t="n">
-        <v>1102</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="6" t="n">
+      <c r="E142" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G142" s="7" t="n">
+        <v>1170</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D143" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E143" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G143" s="7" t="n">
+        <v>1180</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E136" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F136" s="6" t="s">
+      <c r="B144" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G136" s="6" t="n">
-        <v>1103</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="6" t="n">
+      <c r="E144" s="7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D145" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E145" s="7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G145" s="7" t="n">
+        <v>1301</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E137" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F137" s="6" t="s">
+      <c r="B146" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G137" s="6" t="n">
-        <v>1110</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="6" t="n">
+      <c r="E146" s="7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G146" s="7" t="n">
+        <v>1302</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E138" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F138" s="6" t="s">
+      <c r="D147" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G138" s="6" t="n">
-        <v>1130</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E139" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G139" s="6" t="n">
-        <v>1140</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E140" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G140" s="6" t="n">
-        <v>1160</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E141" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G141" s="6" t="n">
-        <v>1170</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E142" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G142" s="6" t="n">
-        <v>1180</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E143" s="6" t="n">
+      <c r="E147" s="7" t="n">
         <v>1300</v>
       </c>
-      <c r="F143" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E144" s="6" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G144" s="6" t="n">
-        <v>1301</v>
-      </c>
-      <c r="H144" s="6" t="s">
+      <c r="F147" s="7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E145" s="6" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G145" s="6" t="n">
-        <v>1302</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E146" s="6" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G146" s="6" t="n">
+      <c r="G147" s="7" t="n">
         <v>1303</v>
       </c>
-      <c r="H146" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D147" s="0" t="s">
+      <c r="H147" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="E147" s="0" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F147" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="G147" s="0" t="n">
-        <v>3110</v>
-      </c>
-      <c r="H147" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>9</v>
@@ -4775,16 +4788,16 @@
         <v>3000</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>3130</v>
+        <v>3110</v>
       </c>
       <c r="H148" s="0" t="s">
         <v>201</v>
@@ -4792,7 +4805,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>9</v>
@@ -4801,16 +4814,16 @@
         <v>3000</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>3140</v>
+        <v>3130</v>
       </c>
       <c r="H149" s="0" t="s">
         <v>202</v>
@@ -4818,7 +4831,7 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>9</v>
@@ -4827,16 +4840,16 @@
         <v>3000</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="H150" s="0" t="s">
         <v>203</v>
@@ -4844,7 +4857,7 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>9</v>
@@ -4853,16 +4866,16 @@
         <v>3000</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H151" s="0" t="s">
         <v>204</v>
@@ -4870,7 +4883,7 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>9</v>
@@ -4879,24 +4892,24 @@
         <v>3000</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F152" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>3160</v>
+      </c>
+      <c r="H152" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="G152" s="0" t="n">
-        <v>3260</v>
-      </c>
-      <c r="H152" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>9</v>
@@ -4905,24 +4918,24 @@
         <v>3000</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>3270</v>
+        <v>3260</v>
       </c>
       <c r="H153" s="0" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>9</v>
@@ -4931,20 +4944,24 @@
         <v>3000</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>206</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>3270</v>
+      </c>
+      <c r="H154" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>9</v>
@@ -4953,24 +4970,20 @@
         <v>3000</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="G155" s="6" t="n">
-        <v>3210</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>208</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>9</v>
@@ -4979,613 +4992,639 @@
         <v>3000</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="G156" s="6" t="n">
+        <v>206</v>
+      </c>
+      <c r="G156" s="7" t="n">
+        <v>3210</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="G157" s="7" t="n">
         <v>3201</v>
       </c>
-      <c r="H156" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C157" s="6" t="n">
+      <c r="H157" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C158" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D158" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E158" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G158" s="7" t="n">
+        <v>1110</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E157" s="6" t="n">
+      <c r="B159" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E159" s="7" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G159" s="7" t="n">
+        <v>3110</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E160" s="7" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G160" s="7" t="n">
+        <v>3111</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C161" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E161" s="7" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G161" s="7" t="n">
+        <v>3120</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E162" s="7" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G162" s="7" t="n">
+        <v>3130</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C163" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E163" s="7" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G163" s="7" t="n">
+        <v>3131</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E164" s="7" t="n">
         <v>1100</v>
       </c>
-      <c r="F157" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G157" s="6" t="n">
+      <c r="F164" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G164" s="7" t="n">
         <v>1110</v>
       </c>
-      <c r="H157" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C158" s="6" t="n">
+      <c r="H164" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C165" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E165" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G165" s="7" t="n">
+        <v>1120</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E166" s="7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G166" s="7" t="n">
+        <v>1210</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C167" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E167" s="7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G167" s="7" t="n">
+        <v>1220</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E168" s="7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G168" s="7" t="n">
+        <v>1230</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C169" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E169" s="7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G169" s="7" t="n">
+        <v>1310</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E170" s="7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G170" s="7" t="n">
+        <v>1410</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E171" s="7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G171" s="7" t="n">
+        <v>1420</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E172" s="7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="D158" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E158" s="6" t="n">
+      <c r="D173" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E173" s="7" t="n">
         <v>3100</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="F173" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G173" s="7" t="n">
+        <v>3110</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D174" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G158" s="6" t="n">
+      <c r="E174" s="7" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G174" s="7" t="n">
+        <v>3120</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C175" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E175" s="7" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G175" s="7" t="n">
         <v>3110</v>
       </c>
-      <c r="H158" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C159" s="6" t="n">
+      <c r="H175" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C176" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E159" s="6" t="n">
+      <c r="D176" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E176" s="7" t="n">
         <v>3100</v>
       </c>
-      <c r="F159" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G159" s="6" t="n">
-        <v>3111</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C160" s="6" t="n">
+      <c r="F176" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G176" s="7" t="n">
+        <v>3120</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C177" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E160" s="6" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G160" s="6" t="n">
-        <v>3120</v>
-      </c>
-      <c r="H160" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C161" s="6" t="n">
+      <c r="D177" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E177" s="7" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G177" s="7" t="n">
+        <v>3210</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E178" s="7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G178" s="7" t="n">
+        <v>1110</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C179" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="D161" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E161" s="6" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G161" s="6" t="n">
-        <v>3130</v>
-      </c>
-      <c r="H161" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C162" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E162" s="6" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G162" s="6" t="n">
-        <v>3131</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C163" s="6" t="n">
+      <c r="D179" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E179" s="7" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G179" s="7" t="n">
+        <v>3211</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C180" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E163" s="6" t="n">
+      <c r="D180" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E180" s="7" t="n">
         <v>1100</v>
       </c>
-      <c r="F163" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G163" s="6" t="n">
-        <v>1110</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C164" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E164" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G164" s="6" t="n">
-        <v>1120</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C165" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E165" s="6" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G165" s="6" t="n">
-        <v>1210</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C166" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E166" s="6" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G166" s="6" t="n">
-        <v>1220</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C167" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E167" s="6" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G167" s="6" t="n">
-        <v>1230</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C168" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E168" s="6" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G168" s="6" t="n">
-        <v>1310</v>
-      </c>
-      <c r="H168" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C169" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E169" s="6" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G169" s="6" t="n">
-        <v>1410</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C170" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E170" s="6" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G170" s="6" t="n">
-        <v>1420</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C171" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E171" s="6" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C172" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E172" s="6" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G172" s="6" t="n">
-        <v>3110</v>
-      </c>
-      <c r="H172" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C173" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E173" s="6" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G173" s="6" t="n">
-        <v>3120</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C174" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E174" s="6" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G174" s="6" t="n">
-        <v>3110</v>
-      </c>
-      <c r="H174" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C175" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E175" s="6" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G175" s="6" t="n">
-        <v>3120</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C176" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E176" s="6" t="n">
-        <v>3200</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G176" s="6" t="n">
-        <v>3210</v>
-      </c>
-      <c r="H176" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C177" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E177" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="G177" s="6" t="n">
-        <v>1110</v>
-      </c>
-      <c r="H177" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C178" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E178" s="6" t="n">
-        <v>3200</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G178" s="6" t="n">
-        <v>3211</v>
-      </c>
-      <c r="H178" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C179" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E179" s="6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
+      <c r="F180" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G24:G121">
+  <conditionalFormatting sqref="G24:G122">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
+++ b/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="241">
   <si>
     <t xml:space="preserve">mfd_sampletype</t>
   </si>
@@ -709,28 +709,40 @@
     <t xml:space="preserve">Groundwater</t>
   </si>
   <si>
+    <t xml:space="preserve">Harbours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wastewater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activated sludge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandfilter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drinking water</t>
   </si>
   <si>
-    <t xml:space="preserve">Tap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waterworks stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wastewater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harbours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activated sludge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandfilter</t>
+    <t xml:space="preserve">tap water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterworks stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncleaned/raw water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandfilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtered water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treated water</t>
   </si>
 </sst>
 </file>
@@ -741,7 +753,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -783,10 +795,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF10D0C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -834,7 +854,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -864,6 +884,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -942,7 +966,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -956,10 +980,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G197" activeCellId="0" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5476,26 +5500,22 @@
         <v>227</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="C175" s="7" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E175" s="7" t="n">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G175" s="7" t="n">
-        <v>3110</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>230</v>
-      </c>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="s">
@@ -5511,13 +5531,13 @@
         <v>169</v>
       </c>
       <c r="E176" s="7" t="n">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G176" s="7" t="n">
-        <v>3120</v>
+        <v>3210</v>
       </c>
       <c r="H176" s="7" t="s">
         <v>231</v>
@@ -5540,42 +5560,38 @@
         <v>3200</v>
       </c>
       <c r="F177" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G177" s="7" t="n">
+        <v>3211</v>
+      </c>
+      <c r="H177" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G177" s="7" t="n">
-        <v>3210</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
         <v>227</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="C178" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E178" s="7" t="n">
         <v>1100</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G178" s="7" t="n">
-        <v>1110</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
         <v>227</v>
       </c>
@@ -5585,20 +5601,8 @@
       <c r="C179" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="D179" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E179" s="7" t="n">
-        <v>3200</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G179" s="7" t="n">
-        <v>3211</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>235</v>
+      <c r="D179" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,20 +5613,148 @@
         <v>169</v>
       </c>
       <c r="C180" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D180" s="7" t="s">
+        <v>3000</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E180" s="8" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E180" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F180" s="7" t="s">
+      <c r="C181" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E181" s="8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F181" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
-    </row>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C182" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E182" s="8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G182" s="8" t="n">
+        <v>3110</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C183" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E183" s="8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G183" s="8" t="n">
+        <v>3120</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C184" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E184" s="8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G184" s="8" t="n">
+        <v>3130</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C185" s="7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E185" s="8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G185" s="8" t="n">
+        <v>3140</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="G24:G122">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>

--- a/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
+++ b/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="242">
   <si>
     <t xml:space="preserve">mfd_sampletype</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Inland dunes grass</t>
   </si>
   <si>
-    <t xml:space="preserve">Heath and scrub</t>
+    <t xml:space="preserve">Temperate heath and scrub</t>
   </si>
   <si>
     <t xml:space="preserve">Temperate heath</t>
@@ -169,22 +169,22 @@
     <t xml:space="preserve">Semi-natural tall-herb humid meadows</t>
   </si>
   <si>
+    <t xml:space="preserve">Molinia meadows</t>
+  </si>
+  <si>
     <t xml:space="preserve">Natural meadow (6410 subtype)</t>
   </si>
   <si>
+    <t xml:space="preserve">Hydrophilous tall-herb swamp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agricultural meadow (6430 subtype)</t>
   </si>
   <si>
-    <t xml:space="preserve">Molinia meadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrophilous tall-herb swamp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grasslands (non-habitat type)</t>
   </si>
   <si>
-    <t xml:space="preserve">§3 grasslands (fersk enge)</t>
+    <t xml:space="preserve">§3 grasslands</t>
   </si>
   <si>
     <t xml:space="preserve">Bogs, mires and fens</t>
@@ -223,6 +223,9 @@
     <t xml:space="preserve">Wet fens</t>
   </si>
   <si>
+    <t xml:space="preserve">Mire (non-habitat type)</t>
+  </si>
+  <si>
     <t xml:space="preserve">§3 mire</t>
   </si>
   <si>
@@ -286,13 +289,13 @@
     <t xml:space="preserve">Forest (non-habitattype)</t>
   </si>
   <si>
-    <t xml:space="preserve">Coniferous forest (nåleskov)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spruce (rødgran, normann)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larch (lærketræ)</t>
+    <t xml:space="preserve">Coniferous forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spruce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larch</t>
   </si>
   <si>
     <t xml:space="preserve">Sitka</t>
@@ -301,7 +304,7 @@
     <t xml:space="preserve">Douglas</t>
   </si>
   <si>
-    <t xml:space="preserve">Pine (skovfyr)</t>
+    <t xml:space="preserve">Pine</t>
   </si>
   <si>
     <t xml:space="preserve">Willow</t>
@@ -310,7 +313,7 @@
     <t xml:space="preserve">Birch</t>
   </si>
   <si>
-    <t xml:space="preserve">Alder (rød-el)</t>
+    <t xml:space="preserve">Alder</t>
   </si>
   <si>
     <t xml:space="preserve">Birch swamp</t>
@@ -319,19 +322,19 @@
     <t xml:space="preserve">Birch-coniferous mix</t>
   </si>
   <si>
-    <t xml:space="preserve">Beech (bøg)</t>
+    <t xml:space="preserve">Beech</t>
   </si>
   <si>
     <t xml:space="preserve">Aspen </t>
   </si>
   <si>
-    <t xml:space="preserve">Maple (Ahorn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deciduous trees (løvtræer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedunculate oak (stilk-eg)</t>
+    <t xml:space="preserve">Maple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deciduous trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedunculate oak</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture</t>
@@ -753,7 +756,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -775,6 +778,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -812,12 +821,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -854,7 +869,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -867,12 +882,16 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -891,6 +910,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,18 +923,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -922,7 +933,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -953,7 +964,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -980,25 +991,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G197" activeCellId="0" sqref="G197"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="60.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
@@ -1440,7 +1451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>8</v>
       </c>
@@ -1531,20 +1542,20 @@
       <c r="D21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>4000</v>
+      <c r="E21" s="3" t="n">
+        <v>4100</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>4010</v>
+      <c r="G21" s="3" t="n">
+        <v>4110</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>8</v>
       </c>
@@ -1554,23 +1565,23 @@
       <c r="C22" s="0" t="n">
         <v>4000</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>4000</v>
+      <c r="E22" s="3" t="n">
+        <v>4100</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>4030</v>
+      <c r="G22" s="3" t="n">
+        <v>4130</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>8</v>
       </c>
@@ -1596,7 +1607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>8</v>
       </c>
@@ -1674,7 +1685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>8</v>
       </c>
@@ -1694,13 +1705,13 @@
         <v>48</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>6402</v>
+        <v>6410</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>8</v>
       </c>
@@ -1719,14 +1730,14 @@
       <c r="F28" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>6403</v>
+      <c r="G28" s="3" t="n">
+        <v>6411</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>8</v>
       </c>
@@ -1746,13 +1757,13 @@
         <v>48</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>6410</v>
+        <v>6430</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>8</v>
       </c>
@@ -1771,14 +1782,14 @@
       <c r="F30" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <v>6430</v>
+      <c r="G30" s="3" t="n">
+        <v>6431</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>8</v>
       </c>
@@ -1791,20 +1802,20 @@
       <c r="D31" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>6000</v>
+      <c r="E31" s="3" t="n">
+        <v>6500</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>6010</v>
+      <c r="G31" s="3" t="n">
+        <v>6510</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +1841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +1867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>8</v>
       </c>
@@ -1934,7 +1945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>8</v>
       </c>
@@ -1960,7 +1971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>8</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>8</v>
       </c>
@@ -1999,20 +2010,20 @@
       <c r="D39" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="0" t="n">
-        <v>7000</v>
+      <c r="E39" s="3" t="n">
+        <v>7300</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>7007</v>
+      <c r="G39" s="3" t="n">
+        <v>7307</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>8</v>
       </c>
@@ -2031,14 +2042,14 @@
       <c r="F40" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <v>7900</v>
+      <c r="G40" s="3" t="n">
+        <v>7910</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>8</v>
       </c>
@@ -2049,22 +2060,22 @@
         <v>8000</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>8200</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>8220</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>8</v>
       </c>
@@ -2075,22 +2086,22 @@
         <v>8000</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>8200</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>8230</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>8</v>
       </c>
@@ -2101,19 +2112,19 @@
         <v>8000</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>8300</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>8330</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,19 +2138,19 @@
         <v>9000</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>9100</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>9110</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,19 +2164,19 @@
         <v>9000</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>9100</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>9120</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,19 +2190,19 @@
         <v>9000</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>9100</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>9130</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,19 +2216,19 @@
         <v>9000</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>9100</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>9150</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,19 +2242,19 @@
         <v>9000</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>9100</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>9160</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,19 +2268,19 @@
         <v>9000</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>9100</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>9170</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,19 +2294,19 @@
         <v>9000</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>9100</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>9190</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,19 +2320,19 @@
         <v>9000</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>9100</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,19 +2346,19 @@
         <v>9000</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>9100</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,21 +2372,21 @@
         <v>9000</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>9910</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="K53" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="K53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -2388,19 +2399,19 @@
         <v>9000</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G54" s="7" t="n">
         <v>9911</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>89</v>
+      <c r="H54" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,19 +2425,19 @@
         <v>9000</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G55" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G55" s="7" t="n">
         <v>9912</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>90</v>
+      <c r="H55" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,19 +2451,19 @@
         <v>9000</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G56" s="7" t="n">
         <v>9913</v>
       </c>
-      <c r="H56" s="5" t="s">
-        <v>91</v>
+      <c r="H56" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,19 +2477,19 @@
         <v>9000</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G57" s="7" t="n">
         <v>9914</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>92</v>
+      <c r="H57" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,19 +2503,19 @@
         <v>9000</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G58" s="7" t="n">
         <v>9915</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>93</v>
+      <c r="H58" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,19 +2529,19 @@
         <v>9000</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G59" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G59" s="7" t="n">
         <v>9920</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>94</v>
+      <c r="H59" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,19 +2555,19 @@
         <v>9000</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G60" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G60" s="7" t="n">
         <v>9930</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>95</v>
+      <c r="H60" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,19 +2581,19 @@
         <v>9000</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G61" s="7" t="n">
         <v>9931</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>96</v>
+      <c r="H61" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,19 +2607,19 @@
         <v>9000</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G62" s="7" t="n">
         <v>9932</v>
       </c>
-      <c r="H62" s="5" t="s">
-        <v>97</v>
+      <c r="H62" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,19 +2633,19 @@
         <v>9000</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G63" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G63" s="7" t="n">
         <v>9939</v>
       </c>
-      <c r="H63" s="5" t="s">
-        <v>98</v>
+      <c r="H63" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,19 +2659,19 @@
         <v>9000</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G64" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G64" s="7" t="n">
         <v>9940</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>99</v>
+      <c r="H64" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,19 +2685,19 @@
         <v>9000</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G65" s="7" t="n">
         <v>9950</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>100</v>
+      <c r="H65" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,19 +2711,19 @@
         <v>9000</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>9960</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,19 +2737,19 @@
         <v>9000</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>9990</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,2058 +2763,2058 @@
         <v>9000</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>9991</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>6111</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G70" s="0" t="n">
         <v>6112</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>6121</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>6122</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>6123</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>6124</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>6131</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>6132</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>6141</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>6142</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>6143</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>6152</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>6153</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>6161</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>6162</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G84" s="0" t="n">
         <v>6190</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>6211</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>6212</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>6213</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>6214</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>6221</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>6222</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G91" s="0" t="n">
         <v>6231</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G92" s="0" t="n">
         <v>6232</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>6200</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G93" s="0" t="n">
         <v>6233</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>6300</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G94" s="0" t="n">
         <v>6311</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>6400</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>6411</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>6400</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>6421</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>6400</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>6422</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>6400</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>6429</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>6500</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>6511</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>6500</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>6512</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>6500</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G101" s="0" t="n">
         <v>6514</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>6600</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G102" s="0" t="n">
         <v>6611</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>6600</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G103" s="0" t="n">
         <v>6612</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>6600</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G104" s="0" t="n">
         <v>6613</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>6600</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>6621</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>6600</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>6622</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>6700</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>6711</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>6700</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G108" s="0" t="n">
         <v>6710</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>6700</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G109" s="0" t="n">
         <v>6712</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>6700</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G110" s="0" t="n">
         <v>6713</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>6700</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>6714</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G112" s="0" t="n">
         <v>6816</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>6817</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>6818</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>6822</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>6823</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G117" s="0" t="n">
         <v>6841</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G118" s="0" t="n">
         <v>6861</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>6800</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>6871</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>6900</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>6911</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>6900</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G121" s="0" t="n">
         <v>6912</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>6000</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>6900</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G122" s="0" t="n">
         <v>6913</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C123" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E123" s="7" t="n">
+      <c r="A123" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C123" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="9" t="n">
         <v>6100</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C124" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E124" s="7" t="n">
+      <c r="C124" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E124" s="9" t="n">
         <v>6200</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
+      <c r="F124" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C125" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E125" s="7" t="n">
+      <c r="A125" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C125" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E125" s="9" t="n">
         <v>6300</v>
       </c>
-      <c r="F125" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C126" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E126" s="7" t="n">
+      <c r="F125" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E126" s="9" t="n">
         <v>6400</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G126" s="9" t="n">
+        <v>6410</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E127" s="9" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G127" s="9" t="n">
+        <v>6420</v>
+      </c>
+      <c r="H127" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G126" s="7" t="n">
-        <v>6410</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C127" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E127" s="7" t="n">
-        <v>6400</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G127" s="7" t="n">
-        <v>6420</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C128" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E128" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="F128" s="7" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G128" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="H128" s="7" t="s">
+      <c r="C128" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E128" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G128" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C129" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E129" s="7" t="n">
+      <c r="C129" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E129" s="9" t="n">
         <v>6100</v>
       </c>
-      <c r="F129" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G129" s="7" t="n">
+      <c r="F129" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G129" s="9" t="n">
         <v>6110</v>
       </c>
-      <c r="H129" s="7" t="s">
+      <c r="H129" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" s="9" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F130" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C130" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E130" s="7" t="n">
+      <c r="G130" s="9" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E131" s="9" t="n">
         <v>6100</v>
       </c>
-      <c r="F130" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G130" s="7" t="n">
-        <v>6120</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C131" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E131" s="7" t="n">
+      <c r="F131" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G131" s="9" t="n">
+        <v>6130</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C132" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" s="9" t="n">
         <v>6100</v>
       </c>
-      <c r="F131" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G131" s="7" t="n">
-        <v>6130</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C132" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E132" s="7" t="n">
-        <v>6100</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G132" s="7" t="n">
+      <c r="F132" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G132" s="9" t="n">
         <v>6190</v>
       </c>
-      <c r="H132" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C133" s="7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E133" s="7" t="n">
+      <c r="H132" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E133" s="9" t="n">
         <v>6200</v>
       </c>
-      <c r="F133" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G133" s="7" t="n">
+      <c r="F133" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G133" s="9" t="n">
         <v>6200</v>
       </c>
-      <c r="H133" s="7" t="s">
-        <v>182</v>
+      <c r="H133" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="7" t="n">
+      <c r="A134" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E134" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E134" s="7" t="n">
+      <c r="B135" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E135" s="9" t="n">
         <v>1100</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F135" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G135" s="9" t="n">
+        <v>1101</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D136" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" s="7" t="n">
+      <c r="E136" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G136" s="9" t="n">
+        <v>1102</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D137" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G137" s="9" t="n">
+        <v>1103</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E135" s="7" t="n">
+      <c r="B138" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E138" s="9" t="n">
         <v>1100</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F138" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G138" s="9" t="n">
+        <v>1110</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G135" s="7" t="n">
-        <v>1101</v>
-      </c>
-      <c r="H135" s="7" t="s">
+      <c r="E139" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="7" t="n">
+      <c r="G139" s="9" t="n">
+        <v>1130</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D140" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E140" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G140" s="9" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E136" s="7" t="n">
+      <c r="B141" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E141" s="9" t="n">
         <v>1100</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F141" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G141" s="9" t="n">
+        <v>1160</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D142" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G136" s="7" t="n">
-        <v>1102</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="7" t="n">
+      <c r="E142" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G142" s="9" t="n">
+        <v>1170</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D143" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E143" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G143" s="9" t="n">
+        <v>1180</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E137" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F137" s="7" t="s">
+      <c r="B144" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D144" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G137" s="7" t="n">
-        <v>1103</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="7" t="n">
+      <c r="E144" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D145" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E145" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G145" s="9" t="n">
+        <v>1301</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E138" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F138" s="7" t="s">
+      <c r="B146" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D146" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G138" s="7" t="n">
-        <v>1110</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="7" t="n">
+      <c r="E146" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G146" s="9" t="n">
+        <v>1302</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D147" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E147" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G147" s="9" t="n">
+        <v>1303</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="E139" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G139" s="7" t="n">
-        <v>1130</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E140" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G140" s="7" t="n">
-        <v>1140</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E141" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G141" s="7" t="n">
-        <v>1160</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E142" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G142" s="7" t="n">
-        <v>1170</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E143" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G143" s="7" t="n">
-        <v>1180</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E144" s="7" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E145" s="7" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G145" s="7" t="n">
-        <v>1301</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E146" s="7" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G146" s="7" t="n">
-        <v>1302</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E147" s="7" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G147" s="7" t="n">
-        <v>1303</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>183</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>9</v>
@@ -4812,24 +4823,24 @@
         <v>3000</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>3110</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>9</v>
@@ -4838,24 +4849,24 @@
         <v>3000</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>3130</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>9</v>
@@ -4864,24 +4875,24 @@
         <v>3000</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>3140</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>9</v>
@@ -4890,24 +4901,24 @@
         <v>3000</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>3150</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>9</v>
@@ -4916,24 +4927,24 @@
         <v>3000</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>3160</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>9</v>
@@ -4942,24 +4953,24 @@
         <v>3000</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>3260</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>9</v>
@@ -4968,24 +4979,24 @@
         <v>3000</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>3270</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>9</v>
@@ -4994,20 +5005,20 @@
         <v>3000</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>9</v>
@@ -5016,24 +5027,24 @@
         <v>3000</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="G156" s="7" t="n">
+        <v>207</v>
+      </c>
+      <c r="G156" s="9" t="n">
         <v>3210</v>
       </c>
-      <c r="H156" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H156" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>9</v>
@@ -5042,723 +5053,718 @@
         <v>3000</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="G157" s="7" t="n">
+        <v>207</v>
+      </c>
+      <c r="G157" s="9" t="n">
         <v>3201</v>
       </c>
-      <c r="H157" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C158" s="7" t="n">
+      <c r="H157" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C158" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E158" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G158" s="9" t="n">
+        <v>1110</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E158" s="7" t="n">
+      <c r="B159" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E159" s="9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G159" s="9" t="n">
+        <v>3110</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E160" s="9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G160" s="9" t="n">
+        <v>3111</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E161" s="9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G161" s="9" t="n">
+        <v>3120</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C162" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E162" s="9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G162" s="9" t="n">
+        <v>3130</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E163" s="9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G163" s="9" t="n">
+        <v>3131</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E164" s="9" t="n">
         <v>1100</v>
       </c>
-      <c r="F158" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G158" s="7" t="n">
+      <c r="F164" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G164" s="9" t="n">
         <v>1110</v>
       </c>
-      <c r="H158" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C159" s="7" t="n">
+      <c r="H164" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E165" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G165" s="9" t="n">
+        <v>1120</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E166" s="9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G166" s="9" t="n">
+        <v>1210</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E167" s="9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G167" s="9" t="n">
+        <v>1220</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C168" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E168" s="9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G168" s="9" t="n">
+        <v>1230</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E169" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G169" s="9" t="n">
+        <v>1310</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C170" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E170" s="9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G170" s="9" t="n">
+        <v>1410</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E171" s="9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G171" s="9" t="n">
+        <v>1420</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E172" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="D159" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E159" s="7" t="n">
+      <c r="D173" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E173" s="9" t="n">
         <v>3100</v>
       </c>
-      <c r="F159" s="7" t="s">
+      <c r="F173" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G173" s="9" t="n">
+        <v>3110</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D174" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G159" s="7" t="n">
+      <c r="E174" s="9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G174" s="9" t="n">
+        <v>3120</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E175" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E176" s="9" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G176" s="9" t="n">
+        <v>3210</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C177" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E177" s="9" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G177" s="9" t="n">
+        <v>3211</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C178" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E178" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C179" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C180" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E180" s="10" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C181" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E181" s="10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C182" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E182" s="10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G182" s="10" t="n">
         <v>3110</v>
       </c>
-      <c r="H159" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C160" s="7" t="n">
+      <c r="H182" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="D160" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E160" s="7" t="n">
+      <c r="D183" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E183" s="10" t="n">
         <v>3100</v>
       </c>
-      <c r="F160" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G160" s="7" t="n">
-        <v>3111</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C161" s="7" t="n">
+      <c r="F183" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G183" s="10" t="n">
+        <v>3120</v>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C184" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="D161" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E161" s="7" t="n">
+      <c r="D184" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E184" s="10" t="n">
         <v>3100</v>
       </c>
-      <c r="F161" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G161" s="7" t="n">
-        <v>3120</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C162" s="7" t="n">
+      <c r="F184" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G184" s="10" t="n">
+        <v>3130</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C185" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="D162" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E162" s="7" t="n">
+      <c r="D185" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E185" s="10" t="n">
         <v>3100</v>
       </c>
-      <c r="F162" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G162" s="7" t="n">
-        <v>3130</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C163" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E163" s="7" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G163" s="7" t="n">
-        <v>3131</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C164" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E164" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G164" s="7" t="n">
-        <v>1110</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C165" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E165" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G165" s="7" t="n">
-        <v>1120</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C166" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E166" s="7" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G166" s="7" t="n">
-        <v>1210</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C167" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E167" s="7" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G167" s="7" t="n">
-        <v>1220</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C168" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E168" s="7" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G168" s="7" t="n">
-        <v>1230</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C169" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E169" s="7" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G169" s="7" t="n">
-        <v>1310</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C170" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E170" s="7" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G170" s="7" t="n">
-        <v>1410</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C171" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E171" s="7" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G171" s="7" t="n">
-        <v>1420</v>
-      </c>
-      <c r="H171" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E172" s="7" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C173" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E173" s="7" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G173" s="7" t="n">
-        <v>3110</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C174" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E174" s="7" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G174" s="7" t="n">
-        <v>3120</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E175" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C176" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E176" s="7" t="n">
-        <v>3200</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G176" s="7" t="n">
-        <v>3210</v>
-      </c>
-      <c r="H176" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C177" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E177" s="7" t="n">
-        <v>3200</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G177" s="7" t="n">
-        <v>3211</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C178" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E178" s="7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C179" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C180" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E180" s="8" t="n">
-        <v>3300</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C181" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E181" s="8" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C182" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E182" s="8" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F182" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G182" s="8" t="n">
-        <v>3110</v>
-      </c>
-      <c r="H182" s="8" t="s">
+      <c r="F185" s="10" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C183" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E183" s="8" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G183" s="8" t="n">
-        <v>3120</v>
-      </c>
-      <c r="H183" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C184" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E184" s="8" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G184" s="8" t="n">
-        <v>3130</v>
-      </c>
-      <c r="H184" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C185" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E185" s="8" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F185" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G185" s="8" t="n">
+      <c r="G185" s="10" t="n">
         <v>3140</v>
       </c>
-      <c r="H185" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H185" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G24:G122">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
+++ b/data/ontology/2022-11-28_mfd-habitat-ontology.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="245">
   <si>
     <t xml:space="preserve">mfd_sampletype</t>
   </si>
@@ -544,6 +544,9 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
+    <t xml:space="preserve">Landfill</t>
+  </si>
+  <si>
     <t xml:space="preserve">Greenspaces</t>
   </si>
   <si>
@@ -664,6 +667,12 @@
     <t xml:space="preserve">Enclosed water</t>
   </si>
   <si>
+    <t xml:space="preserve">Flowing saltwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harbour, marina scraped-off biofilm </t>
+  </si>
+  <si>
     <t xml:space="preserve">Enclosed water, Dried</t>
   </si>
   <si>
@@ -709,10 +718,13 @@
     <t xml:space="preserve">Water</t>
   </si>
   <si>
+    <t xml:space="preserve">Harbours</t>
+  </si>
+  <si>
     <t xml:space="preserve">Groundwater</t>
   </si>
   <si>
-    <t xml:space="preserve">Harbours</t>
+    <t xml:space="preserve">Sandfilter</t>
   </si>
   <si>
     <t xml:space="preserve">Wastewater</t>
@@ -722,9 +734,6 @@
   </si>
   <si>
     <t xml:space="preserve">Activated sludge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandfilter</t>
   </si>
   <si>
     <t xml:space="preserve">Drinking water</t>
@@ -756,7 +765,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -778,12 +787,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -886,12 +889,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -907,10 +914,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -991,10 +994,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K185"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H163" activeCellId="0" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4262,16 +4265,16 @@
         <v>170</v>
       </c>
       <c r="E126" s="9" t="n">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="F126" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G126" s="9" t="n">
+        <v>6310</v>
+      </c>
+      <c r="H126" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="G126" s="9" t="n">
-        <v>6410</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4291,13 +4294,13 @@
         <v>6400</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G127" s="9" t="n">
-        <v>6420</v>
+        <v>6410</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,7 +4308,7 @@
         <v>8</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C128" s="9" t="n">
         <v>6000</v>
@@ -4314,16 +4317,16 @@
         <v>170</v>
       </c>
       <c r="E128" s="9" t="n">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G128" s="9" t="n">
-        <v>6000</v>
+        <v>6420</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4334,7 @@
         <v>8</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C129" s="9" t="n">
         <v>6000</v>
@@ -4340,16 +4343,16 @@
         <v>170</v>
       </c>
       <c r="E129" s="9" t="n">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>178</v>
       </c>
       <c r="G129" s="9" t="n">
-        <v>6110</v>
+        <v>6000</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,7 +4360,7 @@
         <v>8</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C130" s="9" t="n">
         <v>6000</v>
@@ -4369,10 +4372,10 @@
         <v>6100</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G130" s="9" t="n">
-        <v>6120</v>
+        <v>6110</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>180</v>
@@ -4383,7 +4386,7 @@
         <v>8</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C131" s="9" t="n">
         <v>6000</v>
@@ -4395,10 +4398,10 @@
         <v>6100</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G131" s="9" t="n">
-        <v>6130</v>
+        <v>6120</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>181</v>
@@ -4409,7 +4412,7 @@
         <v>8</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C132" s="9" t="n">
         <v>6000</v>
@@ -4421,10 +4424,10 @@
         <v>6100</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G132" s="9" t="n">
-        <v>6190</v>
+        <v>6130</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>182</v>
@@ -4435,7 +4438,7 @@
         <v>8</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C133" s="9" t="n">
         <v>6000</v>
@@ -4444,13 +4447,13 @@
         <v>170</v>
       </c>
       <c r="E133" s="9" t="n">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G133" s="9" t="n">
-        <v>6200</v>
+        <v>6190</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>183</v>
@@ -4458,29 +4461,33 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E134" s="9" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F134" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E134" s="9" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
+      <c r="G134" s="9" t="n">
+        <v>6200</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>9</v>
@@ -4489,24 +4496,20 @@
         <v>1000</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E135" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G135" s="9" t="n">
-        <v>1101</v>
-      </c>
-      <c r="H135" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>9</v>
@@ -4515,16 +4518,16 @@
         <v>1000</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E136" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G136" s="9" t="n">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>188</v>
@@ -4532,7 +4535,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>9</v>
@@ -4541,16 +4544,16 @@
         <v>1000</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E137" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G137" s="9" t="n">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>189</v>
@@ -4558,7 +4561,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>9</v>
@@ -4567,16 +4570,16 @@
         <v>1000</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E138" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G138" s="9" t="n">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>190</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>9</v>
@@ -4593,16 +4596,16 @@
         <v>1000</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E139" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G139" s="9" t="n">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>191</v>
@@ -4610,7 +4613,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>9</v>
@@ -4619,16 +4622,16 @@
         <v>1000</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E140" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G140" s="9" t="n">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>192</v>
@@ -4636,7 +4639,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>9</v>
@@ -4645,16 +4648,16 @@
         <v>1000</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E141" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G141" s="9" t="n">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>193</v>
@@ -4662,7 +4665,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>9</v>
@@ -4671,16 +4674,16 @@
         <v>1000</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E142" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G142" s="9" t="n">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="H142" s="9" t="s">
         <v>194</v>
@@ -4688,7 +4691,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>9</v>
@@ -4697,16 +4700,16 @@
         <v>1000</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E143" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G143" s="9" t="n">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>195</v>
@@ -4714,7 +4717,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>9</v>
@@ -4723,20 +4726,24 @@
         <v>1000</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E144" s="9" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F144" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G144" s="9" t="n">
+        <v>1180</v>
+      </c>
+      <c r="H144" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>9</v>
@@ -4745,24 +4752,20 @@
         <v>1000</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E145" s="9" t="n">
         <v>1300</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G145" s="9" t="n">
-        <v>1301</v>
-      </c>
-      <c r="H145" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>9</v>
@@ -4771,16 +4774,16 @@
         <v>1000</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E146" s="9" t="n">
         <v>1300</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G146" s="9" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>198</v>
@@ -4788,7 +4791,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>9</v>
@@ -4797,50 +4800,50 @@
         <v>1000</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E147" s="9" t="n">
         <v>1300</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G147" s="9" t="n">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D148" s="0" t="s">
+      <c r="A148" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E148" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G148" s="9" t="n">
+        <v>1303</v>
+      </c>
+      <c r="H148" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="E148" s="0" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="G148" s="0" t="n">
-        <v>3110</v>
-      </c>
-      <c r="H148" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>9</v>
@@ -4849,16 +4852,16 @@
         <v>3000</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>3130</v>
+        <v>3110</v>
       </c>
       <c r="H149" s="0" t="s">
         <v>203</v>
@@ -4866,7 +4869,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>9</v>
@@ -4875,16 +4878,16 @@
         <v>3000</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>3140</v>
+        <v>3130</v>
       </c>
       <c r="H150" s="0" t="s">
         <v>204</v>
@@ -4892,7 +4895,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>9</v>
@@ -4901,16 +4904,16 @@
         <v>3000</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="H151" s="0" t="s">
         <v>205</v>
@@ -4918,7 +4921,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>9</v>
@@ -4927,16 +4930,16 @@
         <v>3000</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H152" s="0" t="s">
         <v>206</v>
@@ -4944,7 +4947,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>9</v>
@@ -4953,24 +4956,24 @@
         <v>3000</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F153" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>3160</v>
+      </c>
+      <c r="H153" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="G153" s="0" t="n">
-        <v>3260</v>
-      </c>
-      <c r="H153" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>9</v>
@@ -4979,16 +4982,16 @@
         <v>3000</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>3270</v>
+        <v>3260</v>
       </c>
       <c r="H154" s="0" t="s">
         <v>209</v>
@@ -4996,7 +4999,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>9</v>
@@ -5005,20 +5008,24 @@
         <v>3000</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
+        <v>208</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>3270</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>9</v>
@@ -5027,24 +5034,20 @@
         <v>3000</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="G156" s="9" t="n">
-        <v>3210</v>
-      </c>
-      <c r="H156" s="9" t="s">
-        <v>210</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>9</v>
@@ -5053,715 +5056,1015 @@
         <v>3000</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G157" s="9" t="n">
-        <v>3201</v>
+        <v>3210</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C158" s="9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D158" s="9" t="s">
+      <c r="A158" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="E158" s="9" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F158" s="9" t="s">
+      <c r="B158" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G158" s="9" t="n">
+        <v>3201</v>
+      </c>
+      <c r="H158" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="G158" s="9" t="n">
-        <v>1110</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C159" s="9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E159" s="9" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G159" s="9" t="n">
-        <v>3110</v>
-      </c>
-      <c r="H159" s="9" t="s">
-        <v>213</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C160" s="9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E160" s="9" t="n">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G160" s="9" t="n">
-        <v>3111</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>214</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C161" s="9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E161" s="9" t="n">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G161" s="9" t="n">
-        <v>3120</v>
+        <v>1110</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C162" s="9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E162" s="9" t="n">
-        <v>3100</v>
+        <v>1200</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G162" s="9" t="n">
-        <v>3130</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>216</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C163" s="9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E163" s="9" t="n">
-        <v>3100</v>
+        <v>1200</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G163" s="9" t="n">
-        <v>3131</v>
+        <v>1299</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C164" s="9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E164" s="9" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G164" s="9" t="n">
-        <v>1110</v>
-      </c>
-      <c r="H164" s="9" t="s">
-        <v>218</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C165" s="9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E165" s="9" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G165" s="9" t="n">
-        <v>1120</v>
-      </c>
-      <c r="H165" s="9" t="s">
-        <v>219</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C166" s="9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E166" s="9" t="n">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="G166" s="9" t="n">
-        <v>1210</v>
+        <v>2110</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C167" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E167" s="9" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G167" s="9" t="n">
-        <v>1220</v>
-      </c>
-      <c r="H167" s="9" t="s">
-        <v>222</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C168" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E168" s="9" t="n">
-        <v>1200</v>
+        <v>3100</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="G168" s="9" t="n">
-        <v>1230</v>
+        <v>3110</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C169" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E169" s="9" t="n">
-        <v>1300</v>
+        <v>3100</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G169" s="9" t="n">
-        <v>1310</v>
+        <v>3111</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C170" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E170" s="9" t="n">
-        <v>1400</v>
+        <v>3100</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G170" s="9" t="n">
-        <v>1410</v>
+        <v>3120</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C171" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E171" s="9" t="n">
-        <v>1400</v>
+        <v>3100</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G171" s="9" t="n">
-        <v>1420</v>
+        <v>3130</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="C172" s="9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E172" s="9" t="n">
-        <v>1300</v>
+        <v>3100</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
+        <v>202</v>
+      </c>
+      <c r="G172" s="9" t="n">
+        <v>3131</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C173" s="9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E173" s="9" t="n">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="G173" s="9" t="n">
-        <v>3110</v>
+        <v>1110</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C174" s="9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E174" s="9" t="n">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="G174" s="9" t="n">
-        <v>3120</v>
+        <v>1120</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="C175" s="9" t="n">
         <v>1000</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E175" s="9" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
+        <v>223</v>
+      </c>
+      <c r="G175" s="9" t="n">
+        <v>1210</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C176" s="9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E176" s="9" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G176" s="9" t="n">
-        <v>3210</v>
+        <v>1220</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C177" s="9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E177" s="9" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G177" s="9" t="n">
-        <v>3211</v>
+        <v>1230</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C178" s="9" t="n">
         <v>1000</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E178" s="9" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F178" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
+        <v>1300</v>
+      </c>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9" t="n">
+        <v>1310</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E179" s="9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F179" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C179" s="9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>235</v>
+      <c r="G179" s="9" t="n">
+        <v>1410</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C180" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E180" s="9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F180" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B180" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C180" s="9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E180" s="10" t="n">
-        <v>3300</v>
-      </c>
-      <c r="F180" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G180" s="10"/>
-      <c r="H180" s="10"/>
+      <c r="G180" s="9" t="n">
+        <v>1420</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="C181" s="9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E181" s="10" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F181" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G181" s="10"/>
-      <c r="H181" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="C182" s="9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E182" s="10" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F182" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G182" s="10" t="n">
-        <v>3110</v>
-      </c>
-      <c r="H182" s="10" t="s">
-        <v>238</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E182" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="C183" s="9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D183" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E183" s="10" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F183" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G183" s="10" t="n">
-        <v>3120</v>
-      </c>
-      <c r="H183" s="10" t="s">
-        <v>239</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E183" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C184" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="D184" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E184" s="10" t="n">
+      <c r="D184" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E184" s="9" t="n">
         <v>3100</v>
       </c>
-      <c r="F184" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G184" s="10" t="n">
-        <v>3130</v>
-      </c>
-      <c r="H184" s="10" t="s">
-        <v>240</v>
-      </c>
+      <c r="F184" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C185" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D185" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E185" s="9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G185" s="9" t="n">
+        <v>3110</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C186" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E186" s="9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G186" s="9" t="n">
+        <v>3120</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C187" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C188" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E188" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C189" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E189" s="9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F189" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E185" s="10" t="n">
+      <c r="G189" s="9" t="n">
+        <v>1210</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C190" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E190" s="9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G190" s="9" t="n">
+        <v>1211</v>
+      </c>
+      <c r="H190" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C191" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E191" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C192" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E192" s="9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G192" s="9" t="n">
+        <v>1310</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C193" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C194" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E194" s="10" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C195" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E195" s="10" t="n">
         <v>3100</v>
       </c>
-      <c r="F185" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G185" s="10" t="n">
+      <c r="F195" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C196" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E196" s="10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G196" s="10" t="n">
+        <v>3110</v>
+      </c>
+      <c r="H196" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C197" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E197" s="10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F197" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G197" s="10" t="n">
+        <v>3120</v>
+      </c>
+      <c r="H197" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C198" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E198" s="10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G198" s="10" t="n">
+        <v>3130</v>
+      </c>
+      <c r="H198" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C199" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E199" s="10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G199" s="10" t="n">
         <v>3140</v>
       </c>
-      <c r="H185" s="10" t="s">
-        <v>241</v>
+      <c r="H199" s="10" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
